--- a/merp/checklist.xlsx
+++ b/merp/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/merp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D86F56D-CBC4-5348-9273-B7CDE8219B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0398B82-494F-7948-9373-180CBBCA96B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{F7B43F73-2AFC-F94E-A113-571A87E4BEF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,16 +528,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -545,16 +545,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -562,16 +562,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>

--- a/merp/checklist.xlsx
+++ b/merp/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/merp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C0398B82-494F-7948-9373-180CBBCA96B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C5AA76-3FB6-924D-9BE4-7467DD9CBDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="18740" xr2:uid="{F7B43F73-2AFC-F94E-A113-571A87E4BEF5}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{F7B43F73-2AFC-F94E-A113-571A87E4BEF5}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>指輪物語ロールプレイング</t>
   </si>
   <si>
-    <t>Middle-Earth Role Playig</t>
-  </si>
-  <si>
     <t>box set</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>ローハンの乗り手</t>
+  </si>
+  <si>
+    <t>Middle-Earth Role Playing</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,101 +514,101 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/merp/checklist.xlsx
+++ b/merp/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/merp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C5AA76-3FB6-924D-9BE4-7467DD9CBDF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36BBB2C-7333-0848-A163-66B0311DA282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{F7B43F73-2AFC-F94E-A113-571A87E4BEF5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>year</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Middle-Earth Role Playing</t>
+  </si>
+  <si>
+    <t>ミドルアースハンドブック</t>
+  </si>
+  <si>
+    <t>Middle Earth Handbook</t>
+  </si>
+  <si>
+    <t>handbook.j[pg</t>
   </si>
 </sst>
 </file>
@@ -471,15 +480,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6211203-1C16-434D-B10C-F44CF7B5D665}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" customWidth="1"/>
     <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
@@ -611,6 +620,26 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1990</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/merp/checklist.xlsx
+++ b/merp/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/merp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36BBB2C-7333-0848-A163-66B0311DA282}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0A4CC69F-C748-494A-96CC-2B5F81450CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{F7B43F73-2AFC-F94E-A113-571A87E4BEF5}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Middle Earth Handbook</t>
   </si>
   <si>
-    <t>handbook.j[pg</t>
+    <t>handbook.jpg</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
